--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/ALASKA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/ALASKA_2010.xlsx
@@ -360,45 +360,41 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RINCON DE ROMOS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Rincon De Romos</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="3">
@@ -407,54 +403,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Ensenada</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6">
@@ -463,71 +447,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Delicias</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>JUAREZ</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="10">
@@ -536,54 +504,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.1299999999999998E-2</t>
-        </is>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.0513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COLIMA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>COMALA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Comala</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="13">
@@ -592,71 +548,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.1299999999999998E-2</t>
-        </is>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.0513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Gustavo A. Madero</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Iztapalapa</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Venustiano Carranza</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="17">
@@ -665,37 +605,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.85E-2</t>
-        </is>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.0385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tlapa De Comonfort</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="19">
@@ -704,156 +636,120 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.85E-2</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.0385</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>JALOSTOTITLAN</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Jalostotitlan</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>AUTLAN DE NAVARRO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Autlan De Navarro</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Casimiro Castillo</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAN JULIAN</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>San Julian</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>San Miguel El Alto</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tequila</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TLAQUEPAQUE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tlaquepaque</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="28">
@@ -862,54 +758,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.14099999999999999</t>
-        </is>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>0.141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Naucalpan De Juarez</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tejupilco</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="31">
@@ -918,173 +802,133 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.1299999999999998E-2</t>
-        </is>
+          <t>Acuitzio</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.0513</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>MORELIA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.1299999999999998E-2</t>
-        </is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.0513</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CARACUARO</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Caracuaro</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHARO</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Charo</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECUANDUREO</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Ecuandureo</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>APATZINGAN</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Apatzingan</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>PURUANDIRO</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Puruandiro</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Uruapan</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Zacapu</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="41">
@@ -1093,37 +937,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>0.1923</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>San Blas</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="43">
@@ -1132,71 +968,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>OAXACA DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>8.9700000000000002E-2</t>
-        </is>
+          <t>Oaxaca De Juarez</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0.0897</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>7.6899999999999996E-2</t>
-        </is>
+          <t>Santiago Juxtlahuaca</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>0.0769</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>YOGANA</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Yogana</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="47">
@@ -1205,37 +1025,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.17949999999999999</t>
-        </is>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0.1795</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LIBRES</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Libres</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="49">
@@ -1244,54 +1056,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>QUERETARO DE ARTEAGA</t>
+          <t>Queretaro De Arteaga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Cadereyta De Montes</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tequisquiapan</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="52">
@@ -1300,71 +1100,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Guasave</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>El Fuerte</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>SINALOA</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="56">
@@ -1373,37 +1157,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>5.1299999999999998E-2</t>
-        </is>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0.0513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MINATITLAN</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Minatitlan</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="58">
@@ -1412,122 +1188,94 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3.85E-2</t>
-        </is>
+          <t>Cuauhtemoc</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0.0385</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3.85E-2</t>
-        </is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0.0385</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2.5600000000000001E-2</t>
-        </is>
+          <t>Sombrerete</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>ATOLINGA</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Atolinga</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SANCHEZ ROMAN</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Tlaltenango De Sanchez Roman</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.2800000000000001E-2</t>
-        </is>
+          <t>Monte Escobedo</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="65">
@@ -1536,21 +1284,17 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.14099999999999999</t>
-        </is>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>0.141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1558,15 +1302,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C66">
+        <v>78</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/ALASKA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/ALASKA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Julian</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Yogana</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1126,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Atolinga</t>
@@ -1253,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tlaltenango De Sanchez Roman</t>
@@ -1266,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -1279,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
